--- a/ExcelData/Portfolio.xlsx
+++ b/ExcelData/Portfolio.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RestAssuredProj\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF499DC0-8DEB-4D71-A684-1AA09864FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377C1D1F-A5FF-4540-8569-17E675E6FFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>as on 12th December, 2023)</t>
   </si>
@@ -498,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
@@ -506,8 +506,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.7109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="7.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,41 +521,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <f>(B3-B4)/B4*100</f>
-        <v>2.1332555669881996</v>
+      <c r="A3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <f>(B4-B5)/B5*100</f>
+        <v>2.1332555669881996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>-2.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -671,6 +674,11 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -700,7 +708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B378E9-A3FA-4C31-936A-821CF41B2F23}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
@@ -708,7 +716,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -722,26 +730,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,6 +849,11 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -880,7 +896,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765F8222-E759-45FE-B32E-03DD22E5F56E}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
@@ -888,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -902,26 +918,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1023,6 +1042,11 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1065,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEF9AAE-5373-4E1E-B5AB-07E2BED9A40F}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
@@ -1073,7 +1097,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1087,26 +1111,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1208,6 +1235,11 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1254,12 +1286,12 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,11 +1305,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>16</v>
       </c>
     </row>

--- a/ExcelData/Portfolio.xlsx
+++ b/ExcelData/Portfolio.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>as on 12th December, 2023)</t>
   </si>
@@ -498,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
@@ -529,7 +529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s" s="0">
         <v>11</v>
       </c>
@@ -538,32 +538,35 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <f>(B4-B5)/B5*100</f>
-        <v>2.1332555669881996</v>
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <f>(B5-B6)/B6*100</f>
+        <v>2.1332555669881996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>-2.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -679,6 +682,11 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -708,7 +716,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B378E9-A3FA-4C31-936A-821CF41B2F23}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
@@ -738,7 +746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s" s="0">
         <v>11</v>
       </c>
@@ -747,17 +755,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -854,6 +865,11 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -896,7 +912,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765F8222-E759-45FE-B32E-03DD22E5F56E}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
@@ -926,7 +942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s" s="0">
         <v>11</v>
       </c>
@@ -935,17 +951,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1047,6 +1066,11 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEF9AAE-5373-4E1E-B5AB-07E2BED9A40F}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
@@ -1119,7 +1143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s" s="0">
         <v>11</v>
       </c>
@@ -1128,17 +1152,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,6 +1267,11 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1283,7 +1315,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA7ADD8-7561-4F7E-A3EE-BE0F9AC4FD80}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1313,18 +1345,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,6 +1451,11 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelData/Portfolio.xlsx
+++ b/ExcelData/Portfolio.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>as on 12th December, 2023)</t>
   </si>
@@ -498,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
@@ -537,7 +537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s" s="0">
         <v>11</v>
       </c>
@@ -546,32 +546,35 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <f>(B5-B6)/B6*100</f>
-        <v>2.1332555669881996</v>
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <f>(B6-B7)/B7*100</f>
+        <v>2.1332555669881996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>-2.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -687,6 +690,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -716,7 +724,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B378E9-A3FA-4C31-936A-821CF41B2F23}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
@@ -754,7 +762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s" s="0">
         <v>11</v>
       </c>
@@ -763,17 +771,20 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,6 +881,11 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -912,7 +928,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765F8222-E759-45FE-B32E-03DD22E5F56E}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
@@ -950,7 +966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s" s="0">
         <v>11</v>
       </c>
@@ -959,17 +975,20 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1071,6 +1090,11 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1113,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEF9AAE-5373-4E1E-B5AB-07E2BED9A40F}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
@@ -1151,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s" s="0">
         <v>11</v>
       </c>
@@ -1160,17 +1184,20 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,6 +1299,11 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA7ADD8-7561-4F7E-A3EE-BE0F9AC4FD80}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1353,18 +1385,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,6 +1491,11 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
